--- a/Matlab code/dataset_ycoor.xlsx
+++ b/Matlab code/dataset_ycoor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\NDSS_2023\Event triggered intersection\Event-triggered Intersection - Carla\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabbir92\Documents\GitHub\Trust_based_CBF\Matlab code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED68E27E-1EBE-46F9-83FE-1EC17EF0EA8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6AC69F-FFF2-46D7-B61E-F2F1B7164023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{93C98FF4-D361-4CF4-800F-3C4ABA3A2EBB}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="8170" xr2:uid="{93C98FF4-D361-4CF4-800F-3C4ABA3A2EBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -388,9 +388,9 @@
       <selection sqref="A1:AGL25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>0</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -5614,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -5817,10 +5817,10 @@
         <v>185.5616599654314</v>
       </c>
       <c r="BP3">
-        <v>186.83281232341756</v>
+        <v>186.83281232341758</v>
       </c>
       <c r="BQ3">
-        <v>188.09793302064162</v>
+        <v>188.09793302064165</v>
       </c>
       <c r="BR3">
         <v>189.35164745261136</v>
@@ -5841,7 +5841,7 @@
         <v>195.31413779178607</v>
       </c>
       <c r="BX3">
-        <v>196.31536022696056</v>
+        <v>196.31536022696059</v>
       </c>
       <c r="BY3">
         <v>197.27208416488963</v>
@@ -8226,7 +8226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>194.18242233860633</v>
       </c>
       <c r="AR4">
-        <v>194.18442016580849</v>
+        <v>194.18442016580852</v>
       </c>
       <c r="AS4">
         <v>194.18643272213239</v>
@@ -8366,7 +8366,7 @@
         <v>194.18846772501348</v>
       </c>
       <c r="AU4">
-        <v>194.1905281680875</v>
+        <v>194.19052816808752</v>
       </c>
       <c r="AV4">
         <v>194.19261504708976</v>
@@ -8378,7 +8378,7 @@
         <v>194.19686824216424</v>
       </c>
       <c r="AY4">
-        <v>194.1990339664367</v>
+        <v>194.19903396643667</v>
       </c>
       <c r="AZ4">
         <v>194.20122520844075</v>
@@ -8387,10 +8387,10 @@
         <v>194.20344151530102</v>
       </c>
       <c r="BB4">
-        <v>194.20568243293437</v>
+        <v>194.20568243293434</v>
       </c>
       <c r="BC4">
-        <v>194.20794751162387</v>
+        <v>194.2079475116239</v>
       </c>
       <c r="BD4">
         <v>194.21023630821742</v>
@@ -8402,10 +8402,10 @@
         <v>194.21488331960728</v>
       </c>
       <c r="BG4">
-        <v>194.21724068567067</v>
+        <v>194.2172406856707</v>
       </c>
       <c r="BH4">
-        <v>194.21962007208288</v>
+        <v>194.2196200720829</v>
       </c>
       <c r="BI4">
         <v>194.22202107319319</v>
@@ -8423,7 +8423,7 @@
         <v>194.2318333626022</v>
       </c>
       <c r="BN4">
-        <v>194.23433660152213</v>
+        <v>194.2343366015221</v>
       </c>
       <c r="BO4">
         <v>194.23685916878608</v>
@@ -8444,7 +8444,7 @@
         <v>194.24974962978825</v>
       </c>
       <c r="BU4">
-        <v>194.25238087290276</v>
+        <v>194.25238087290273</v>
       </c>
       <c r="BV4">
         <v>194.2550290694046</v>
@@ -8495,7 +8495,7 @@
         <v>194.29183002221151</v>
       </c>
       <c r="CL4">
-        <v>194.29425639939944</v>
+        <v>194.29425639939942</v>
       </c>
       <c r="CM4">
         <v>194.29668165470684</v>
@@ -8528,22 +8528,22 @@
         <v>193.54073959323912</v>
       </c>
       <c r="CW4">
-        <v>193.02482291174221</v>
+        <v>193.02482291174223</v>
       </c>
       <c r="CX4">
         <v>192.33448045146281</v>
       </c>
       <c r="CY4">
-        <v>191.4878208609087</v>
+        <v>191.48782086090873</v>
       </c>
       <c r="CZ4">
-        <v>190.62111566661002</v>
+        <v>190.62111566661005</v>
       </c>
       <c r="DA4">
-        <v>189.62068738385773</v>
+        <v>189.62068738385776</v>
       </c>
       <c r="DB4">
-        <v>188.61430505555413</v>
+        <v>188.61430505555415</v>
       </c>
       <c r="DC4">
         <v>187.60761412002205</v>
@@ -8726,10 +8726,10 @@
         <v>128.59021419621652</v>
       </c>
       <c r="FK4">
-        <v>127.59021429106409</v>
+        <v>127.5902142910641</v>
       </c>
       <c r="FL4">
-        <v>126.59021438591165</v>
+        <v>126.59021438591166</v>
       </c>
       <c r="FM4">
         <v>125.59021448075922</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -16062,7 +16062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -16286,7 +16286,7 @@
         <v>247.73188198019986</v>
       </c>
       <c r="BW7">
-        <v>246.46618640910671</v>
+        <v>246.46618640910668</v>
       </c>
       <c r="BX7">
         <v>245.20119687680676</v>
@@ -16301,16 +16301,16 @@
         <v>241.4096857724432</v>
       </c>
       <c r="CB7">
-        <v>240.1467708772262</v>
+        <v>240.14677087722617</v>
       </c>
       <c r="CC7">
-        <v>238.88421570284763</v>
+        <v>238.8842157028476</v>
       </c>
       <c r="CD7">
-        <v>237.62196715286626</v>
+        <v>237.6219671528662</v>
       </c>
       <c r="CE7">
-        <v>236.35997684768637</v>
+        <v>236.35997684768634</v>
       </c>
       <c r="CF7">
         <v>235.09820081539209</v>
@@ -16334,28 +16334,28 @@
         <v>227.53020774503477</v>
       </c>
       <c r="CM7">
-        <v>226.26894133708382</v>
+        <v>226.26894133708379</v>
       </c>
       <c r="CN7">
-        <v>225.00772142878102</v>
+        <v>225.007721428781</v>
       </c>
       <c r="CO7">
-        <v>223.74642003950592</v>
+        <v>223.74642003950589</v>
       </c>
       <c r="CP7">
-        <v>222.48513773527017</v>
+        <v>222.48513773527014</v>
       </c>
       <c r="CQ7">
-        <v>221.22365557973833</v>
+        <v>221.22365557973831</v>
       </c>
       <c r="CR7">
-        <v>219.96204808857865</v>
+        <v>219.9620480885786</v>
       </c>
       <c r="CS7">
-        <v>218.70024031577478</v>
+        <v>218.70024031577475</v>
       </c>
       <c r="CT7">
-        <v>217.43841161767511</v>
+        <v>217.43841161767509</v>
       </c>
       <c r="CU7">
         <v>216.17637196761814</v>
@@ -16370,31 +16370,31 @@
         <v>212.38951269700419</v>
       </c>
       <c r="CY7">
-        <v>211.12701009698776</v>
+        <v>211.12701009698773</v>
       </c>
       <c r="CZ7">
-        <v>209.86439881783201</v>
+        <v>209.86439881783198</v>
       </c>
       <c r="DA7">
-        <v>208.63173111741449</v>
+        <v>208.63173111741446</v>
       </c>
       <c r="DB7">
-        <v>207.45906200194872</v>
+        <v>207.45906200194869</v>
       </c>
       <c r="DC7">
-        <v>206.34407378652301</v>
+        <v>206.34407378652298</v>
       </c>
       <c r="DD7">
-        <v>205.27817499004823</v>
+        <v>205.2781749900482</v>
       </c>
       <c r="DE7">
-        <v>204.25035980742808</v>
+        <v>204.25035980742803</v>
       </c>
       <c r="DF7">
-        <v>203.25229023327699</v>
+        <v>203.25229023327694</v>
       </c>
       <c r="DG7">
-        <v>202.2775887232772</v>
+        <v>202.27758872327718</v>
       </c>
       <c r="DH7">
         <v>201.32133817361918</v>
@@ -18674,7 +18674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -21286,7 +21286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -21546,175 +21546,175 @@
         <v>149.03816898553882</v>
       </c>
       <c r="CI9">
-        <v>150.2304478654799</v>
+        <v>150.23044786547985</v>
       </c>
       <c r="CJ9">
-        <v>151.41918007668855</v>
+        <v>151.41918007668843</v>
       </c>
       <c r="CK9">
-        <v>152.60436506883659</v>
+        <v>152.60436506883644</v>
       </c>
       <c r="CL9">
-        <v>153.78604203044614</v>
+        <v>153.78604203044597</v>
       </c>
       <c r="CM9">
-        <v>154.96426596338551</v>
+        <v>154.96426596338529</v>
       </c>
       <c r="CN9">
-        <v>156.13909772429275</v>
+        <v>156.13909772429247</v>
       </c>
       <c r="CO9">
-        <v>157.3105998875713</v>
+        <v>157.31059988757102</v>
       </c>
       <c r="CP9">
-        <v>158.47883503472869</v>
+        <v>158.47883503472841</v>
       </c>
       <c r="CQ9">
-        <v>159.64386505482713</v>
+        <v>159.64386505482685</v>
       </c>
       <c r="CR9">
-        <v>160.80575086613939</v>
+        <v>160.80575086613911</v>
       </c>
       <c r="CS9">
-        <v>161.96455231312348</v>
+        <v>161.96455231312322</v>
       </c>
       <c r="CT9">
-        <v>163.12032813622812</v>
+        <v>163.12032813622787</v>
       </c>
       <c r="CU9">
-        <v>164.27313597181325</v>
+        <v>164.27313597181299</v>
       </c>
       <c r="CV9">
-        <v>165.42303236438519</v>
+        <v>165.42303236438485</v>
       </c>
       <c r="CW9">
-        <v>166.57007278373118</v>
+        <v>166.57007278373058</v>
       </c>
       <c r="CX9">
-        <v>167.71431164386649</v>
+        <v>167.7143116438657</v>
       </c>
       <c r="CY9">
-        <v>168.85580232251306</v>
+        <v>168.8558023225122</v>
       </c>
       <c r="CZ9">
-        <v>169.99459722883824</v>
+        <v>169.99459722883739</v>
       </c>
       <c r="DA9">
-        <v>171.13074772415371</v>
+        <v>171.13074772415285</v>
       </c>
       <c r="DB9">
-        <v>172.26430416008461</v>
+        <v>172.26430416008375</v>
       </c>
       <c r="DC9">
-        <v>173.39531594811228</v>
+        <v>173.39531594811146</v>
       </c>
       <c r="DD9">
-        <v>174.52383157135074</v>
+        <v>174.52383157134992</v>
       </c>
       <c r="DE9">
-        <v>175.64989858917255</v>
+        <v>175.64989858917176</v>
       </c>
       <c r="DF9">
-        <v>176.77356365480358</v>
+        <v>176.77356365480279</v>
       </c>
       <c r="DG9">
-        <v>177.89487253258719</v>
+        <v>177.89487253258642</v>
       </c>
       <c r="DH9">
-        <v>179.01387011491988</v>
+        <v>179.01387011491911</v>
       </c>
       <c r="DI9">
-        <v>180.13060043886429</v>
+        <v>180.13060043886358</v>
       </c>
       <c r="DJ9">
-        <v>181.24510670244595</v>
+        <v>181.24510670244527</v>
       </c>
       <c r="DK9">
-        <v>182.35743128063928</v>
+        <v>182.35743128063859</v>
       </c>
       <c r="DL9">
-        <v>183.4676157410492</v>
+        <v>183.46761574104852</v>
       </c>
       <c r="DM9">
-        <v>184.57569897598691</v>
+        <v>184.57569897598626</v>
       </c>
       <c r="DN9">
-        <v>185.68170485730369</v>
+        <v>185.68170485730306</v>
       </c>
       <c r="DO9">
-        <v>186.78569967190433</v>
+        <v>186.78569967190373</v>
       </c>
       <c r="DP9">
-        <v>187.88493704838862</v>
+        <v>187.884937048388</v>
       </c>
       <c r="DQ9">
-        <v>188.97648092932204</v>
+        <v>188.97648092932144</v>
       </c>
       <c r="DR9">
-        <v>190.06283777339544</v>
+        <v>190.06283777339485</v>
       </c>
       <c r="DS9">
-        <v>191.14712381315917</v>
+        <v>191.1471238131586</v>
       </c>
       <c r="DT9">
-        <v>192.22898341237681</v>
+        <v>192.22898341237624</v>
       </c>
       <c r="DU9">
-        <v>193.30648399748293</v>
+        <v>193.30648399748239</v>
       </c>
       <c r="DV9">
-        <v>194.28862787883259</v>
+        <v>194.28862787883216</v>
       </c>
       <c r="DW9">
-        <v>195.20824326470915</v>
+        <v>195.20824326470876</v>
       </c>
       <c r="DX9">
-        <v>196.11961646232831</v>
+        <v>196.11961646232794</v>
       </c>
       <c r="DY9">
-        <v>197.02232508036113</v>
+        <v>197.02232508036079</v>
       </c>
       <c r="DZ9">
-        <v>197.8594263154875</v>
+        <v>197.85942631548721</v>
       </c>
       <c r="EA9">
-        <v>198.45027023473159</v>
+        <v>198.45027023473142</v>
       </c>
       <c r="EB9">
-        <v>198.98822023712077</v>
+        <v>198.9882202371206</v>
       </c>
       <c r="EC9">
-        <v>199.51291440858188</v>
+        <v>199.51291440858174</v>
       </c>
       <c r="ED9">
-        <v>200.03122301439697</v>
+        <v>200.03122301439683</v>
       </c>
       <c r="EE9">
-        <v>200.41261616896648</v>
+        <v>200.41261616896634</v>
       </c>
       <c r="EF9">
-        <v>200.61226741083206</v>
+        <v>200.61226741083198</v>
       </c>
       <c r="EG9">
-        <v>200.76752842673258</v>
+        <v>200.76752842673253</v>
       </c>
       <c r="EH9">
-        <v>200.91145195365254</v>
+        <v>200.91145195365249</v>
       </c>
       <c r="EI9">
-        <v>201.05220202481723</v>
+        <v>201.05220202481718</v>
       </c>
       <c r="EJ9">
-        <v>201.1922347758549</v>
+        <v>201.19223477585487</v>
       </c>
       <c r="EK9">
-        <v>201.30091573179959</v>
+        <v>201.30091573179956</v>
       </c>
       <c r="EL9">
         <v>201.30618052448847</v>
       </c>
       <c r="EM9">
-        <v>201.30469299919216</v>
+        <v>201.30469299919218</v>
       </c>
       <c r="EN9">
         <v>201.30247585118903</v>
@@ -21750,13 +21750,13 @@
         <v>201.27885012732042</v>
       </c>
       <c r="EY9">
-        <v>201.2764826234841</v>
+        <v>201.27648262348407</v>
       </c>
       <c r="EZ9">
-        <v>201.27411511964746</v>
+        <v>201.27411511964743</v>
       </c>
       <c r="FA9">
-        <v>201.27174761581082</v>
+        <v>201.2717476158108</v>
       </c>
       <c r="FB9">
         <v>201.26938011197419</v>
@@ -21780,7 +21780,7 @@
         <v>201.25517508895439</v>
       </c>
       <c r="FI9">
-        <v>201.25280758511775</v>
+        <v>201.25280758511778</v>
       </c>
       <c r="FJ9">
         <v>201.25044008128111</v>
@@ -21819,19 +21819,19 @@
         <v>201.2243975390781</v>
       </c>
       <c r="FV9">
-        <v>201.22203003524146</v>
+        <v>201.22203003524149</v>
       </c>
       <c r="FW9">
-        <v>201.21966253140485</v>
+        <v>201.21966253140488</v>
       </c>
       <c r="FX9">
-        <v>201.21729502756821</v>
+        <v>201.21729502756824</v>
       </c>
       <c r="FY9">
-        <v>201.21492752373157</v>
+        <v>201.2149275237316</v>
       </c>
       <c r="FZ9">
-        <v>201.21256001989494</v>
+        <v>201.21256001989497</v>
       </c>
       <c r="GA9">
         <v>201.21019251605833</v>
@@ -21855,10 +21855,10 @@
         <v>201.1959874930385</v>
       </c>
       <c r="GH9">
-        <v>201.19361998920186</v>
+        <v>201.19361998920184</v>
       </c>
       <c r="GI9">
-        <v>201.19125248536523</v>
+        <v>201.1912524853652</v>
       </c>
       <c r="GJ9">
         <v>201.18888498152859</v>
@@ -21870,16 +21870,16 @@
         <v>201.18414997385531</v>
       </c>
       <c r="GM9">
-        <v>201.18178247001867</v>
+        <v>201.1817824700187</v>
       </c>
       <c r="GN9">
-        <v>201.17941466515498</v>
+        <v>201.17941466515501</v>
       </c>
       <c r="GO9">
-        <v>201.17704686029126</v>
+        <v>201.17704686029128</v>
       </c>
       <c r="GP9">
-        <v>201.17467905542753</v>
+        <v>201.17467905542756</v>
       </c>
       <c r="GQ9">
         <v>201.17231125056384</v>
@@ -21888,28 +21888,28 @@
         <v>201.16994344570014</v>
       </c>
       <c r="GS9">
-        <v>201.16757564083642</v>
+        <v>201.16757564083645</v>
       </c>
       <c r="GT9">
-        <v>201.16520783597272</v>
+        <v>201.16520783597275</v>
       </c>
       <c r="GU9">
-        <v>201.162840031109</v>
+        <v>201.16284003110903</v>
       </c>
       <c r="GV9">
-        <v>201.1604722262453</v>
+        <v>201.16047222624533</v>
       </c>
       <c r="GW9">
-        <v>201.15810442138158</v>
+        <v>201.15810442138161</v>
       </c>
       <c r="GX9">
-        <v>201.15573661651786</v>
+        <v>201.15573661651788</v>
       </c>
       <c r="GY9">
-        <v>201.15336881165416</v>
+        <v>201.15336881165419</v>
       </c>
       <c r="GZ9">
-        <v>201.15100100679044</v>
+        <v>201.15100100679047</v>
       </c>
       <c r="HA9">
         <v>0</v>
@@ -23898,7 +23898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
@@ -26510,7 +26510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0</v>
       </c>
@@ -29122,7 +29122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -31734,7 +31734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -34346,7 +34346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
@@ -36958,7 +36958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0</v>
       </c>
@@ -39570,7 +39570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0</v>
       </c>
@@ -42182,7 +42182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
@@ -44794,7 +44794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -47406,7 +47406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0</v>
       </c>
@@ -50018,7 +50018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0</v>
       </c>
@@ -52630,7 +52630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0</v>
       </c>
@@ -55242,7 +55242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0</v>
       </c>
@@ -57854,7 +57854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0</v>
       </c>
@@ -60466,7 +60466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
@@ -63078,7 +63078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:870" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:870" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
